--- a/calibration_factors/BlueDrop_Calibration_Factors.xlsx
+++ b/calibration_factors/BlueDrop_Calibration_Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geotech_Research\Field_Analysis\BlueDrop_Analysis_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st.adusei\BlueDrop_Analysis_Lib\calibration_factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C25091-E3EC-4063-91B9-93AB7C530B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C37A7D-D864-4C0F-8993-BD1B8126BBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29640" yWindow="1605" windowWidth="17280" windowHeight="8970" xr2:uid="{ED08122E-F907-40EC-B515-5B3584CD96BD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{ED08122E-F907-40EC-B515-5B3584CD96BD}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -536,31 +536,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EAFC28-FDDC-4734-9491-B8FE19884229}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -574,18 +574,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4181E3DB-B459-4A4F-B256-9EB099402ABE}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.58203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -596,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -607,7 +607,7 @@
         <v>1625064</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -618,7 +618,7 @@
         <v>160925.70000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -629,7 +629,7 @@
         <v>63944.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -640,7 +640,7 @@
         <v>32192.400000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -651,7 +651,7 @@
         <v>13688.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -662,7 +662,7 @@
         <v>52137.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -673,7 +673,7 @@
         <v>28074.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,14 +697,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -715,7 +715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -726,7 +726,7 @@
         <v>1637627.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -737,7 +737,7 @@
         <v>160297.20000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -748,7 +748,7 @@
         <v>63968.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -759,7 +759,7 @@
         <v>30583.8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -770,7 +770,7 @@
         <v>13545.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -781,7 +781,7 @@
         <v>68590.899999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -792,7 +792,7 @@
         <v>68280.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -813,17 +813,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -834,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -845,7 +845,7 @@
         <v>1615925.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -856,7 +856,7 @@
         <v>163530.70000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -867,7 +867,7 @@
         <v>63651</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -878,7 +878,7 @@
         <v>38888.699999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -889,7 +889,7 @@
         <v>13631.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -900,7 +900,7 @@
         <v>66674.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -911,7 +911,7 @@
         <v>66674.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -932,17 +932,17 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -953,7 +953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -964,7 +964,7 @@
         <v>1626262.4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -975,7 +975,7 @@
         <v>159870.39999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -986,7 +986,7 @@
         <v>63690.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -997,7 +997,7 @@
         <v>27604.799999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>13630.9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>65260.800000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>65778.7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1041,28 +1041,28 @@
         <v>20278.7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" s="4"/>
     </row>
   </sheetData>
